--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2355.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2355.xlsx
@@ -354,7 +354,7 @@
         <v>1.387459786573525</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.567972167620285</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2355.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2355.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8357084142479115</v>
+        <v>1.007823705673218</v>
       </c>
       <c r="B1">
-        <v>1.387459786573525</v>
+        <v>2.11767578125</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>6.477560043334961</v>
       </c>
       <c r="D1">
-        <v>2.567972167620285</v>
+        <v>1.680773735046387</v>
       </c>
       <c r="E1">
-        <v>1.304395074604728</v>
+        <v>1.366701126098633</v>
       </c>
     </row>
   </sheetData>
